--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,15 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -64,12 +64,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,15 +82,15 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -100,85 +100,91 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>support</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
+    <t>well</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -193,19 +199,16 @@
     <t>increase</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>new</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -581,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +598,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -700,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.708904109589041</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,7 +856,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -868,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3624161073825503</v>
+        <v>0.3959731543624161</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
@@ -950,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3466666666666667</v>
+        <v>0.36</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3449612403100775</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C10">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D10">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.851063829787234</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3121693121693122</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8414634146341463</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2727272727272727</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1825396825396825</v>
+        <v>0.1626984126984127</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
@@ -1200,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.09919571045576407</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1256,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7833333333333333</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1282,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1302,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1328,13 +1334,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7535211267605634</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1354,13 +1360,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1372,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1380,13 +1386,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.746031746031746</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1406,13 +1412,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7358490566037735</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1432,13 +1438,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.7222222222222222</v>
+        <v>0.73125</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1450,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1458,13 +1464,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.7125</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L23">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M23">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1476,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1484,13 +1490,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6595744680851063</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L24">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M24">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1502,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1510,13 +1516,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6458333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1536,13 +1542,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6176470588235294</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1554,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1562,13 +1568,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6083550913838121</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L27">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M27">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1580,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1588,13 +1594,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1606,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1614,13 +1620,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5970588235294118</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L29">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1632,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1640,13 +1646,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1658,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1666,13 +1672,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.55</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1684,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1692,13 +1698,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5288135593220339</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L32">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1710,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1718,13 +1724,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5280898876404494</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1736,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1744,13 +1750,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1762,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1770,13 +1776,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.5238095238095238</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1788,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1796,13 +1802,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.5116279069767442</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1822,13 +1828,13 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5062761506276151</v>
+        <v>0.475</v>
       </c>
       <c r="L37">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1840,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1848,13 +1854,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1866,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1874,13 +1880,13 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.4383561643835616</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1892,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1900,13 +1906,13 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.3974358974358974</v>
+        <v>0.4375</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1918,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1926,13 +1932,13 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.3692307692307693</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1944,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1952,13 +1958,13 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.3571428571428572</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1970,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1978,25 +1984,25 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.102803738317757</v>
+        <v>0.3</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>192</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2004,13 +2010,13 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.09090909090909091</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2022,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2030,13 +2036,13 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.0889423076923077</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2048,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2056,13 +2062,13 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.0738255033557047</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L46">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2074,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>828</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2082,13 +2088,13 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>0.04661487236403995</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2100,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>859</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2108,25 +2114,25 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.04160246533127889</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>622</v>
+        <v>860</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2134,25 +2140,25 @@
         <v>67</v>
       </c>
       <c r="K49">
-        <v>0.02899906454630496</v>
+        <v>0.03549382716049383</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2076</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2160,25 +2166,25 @@
         <v>68</v>
       </c>
       <c r="K50">
-        <v>0.01289906481780071</v>
+        <v>0.02998846597462514</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>3061</v>
+        <v>841</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2186,25 +2192,77 @@
         <v>69</v>
       </c>
       <c r="K51">
-        <v>0.006257822277847309</v>
+        <v>0.02568893040635217</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N51">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3176</v>
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52">
+        <v>0.01225411157691067</v>
+      </c>
+      <c r="L52">
+        <v>38</v>
+      </c>
+      <c r="M52">
+        <v>44</v>
+      </c>
+      <c r="N52">
+        <v>0.86</v>
+      </c>
+      <c r="O52">
+        <v>0.14</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53">
+        <v>0.00688360450563204</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>27</v>
+      </c>
+      <c r="N53">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
